--- a/config/testcases/Report_BE.GV03_Puzzle(Clone).xlsx
+++ b/config/testcases/Report_BE.GV03_Puzzle(Clone).xlsx
@@ -301,7 +301,7 @@
     <t>$.turn[0].word[*].audio[*].file_path</t>
   </si>
   <si>
-    <t>Mask_030</t>
+    <t>Mask_0,30</t>
   </si>
   <si>
     <t>$.turn[1].word[*].image[*].file_path</t>
